--- a/data-raw/no-translation-now-translated.xlsx
+++ b/data-raw/no-translation-now-translated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Primahadi/Documents/enggano-AHRC/enggano-holle-list-2023-03-27/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FC89EF-D20A-C449-B0FF-CB1C950C5800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1244C-C8EC-6143-8D63-1BAD8F3F6C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -588,12 +588,6 @@
   </si>
   <si>
     <t>mimpi</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>-nya</t>
   </si>
   <si>
     <t>male</t>
@@ -1449,9 +1443,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1511,9 +1504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1551,7 +1544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1657,7 +1650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1799,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1809,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>186</v>
+        <v>307</v>
+      </c>
+      <c r="E2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1880,10 +1873,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1897,10 +1890,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1914,10 +1907,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1931,10 +1924,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1948,10 +1941,10 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1965,10 +1958,10 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1982,10 +1975,10 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,10 +1992,10 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2016,10 +2009,10 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2033,10 +2026,10 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2050,10 +2043,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2067,10 +2060,10 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2084,10 +2077,10 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,10 +2094,10 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2118,10 +2111,10 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2135,10 +2128,10 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,10 +2145,10 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2169,10 +2162,10 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2186,10 +2179,10 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2203,10 +2196,10 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,10 +2213,10 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2237,10 +2230,10 @@
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,10 +2247,10 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2271,10 +2264,10 @@
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2288,10 +2281,10 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2305,10 +2298,10 @@
         <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,10 +2315,10 @@
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2339,10 +2332,10 @@
         <v>93</v>
       </c>
       <c r="D31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" t="s">
         <v>241</v>
-      </c>
-      <c r="E31" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2356,10 +2349,10 @@
         <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2373,10 +2366,10 @@
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2390,10 +2383,10 @@
         <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2407,10 +2400,10 @@
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2424,10 +2417,10 @@
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2441,10 +2434,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2458,44 +2451,44 @@
         <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
         <v>115</v>
       </c>
       <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" t="s">
         <v>259</v>
-      </c>
-      <c r="D39" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
       </c>
       <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
         <v>262</v>
       </c>
-      <c r="D40" t="s">
-        <v>264</v>
-      </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,10 +2502,10 @@
         <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2526,10 +2519,10 @@
         <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2543,10 +2536,10 @@
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2560,10 +2553,10 @@
         <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2577,10 +2570,10 @@
         <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2594,10 +2587,10 @@
         <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2611,10 +2604,10 @@
         <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2628,10 +2621,10 @@
         <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2645,10 +2638,10 @@
         <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2662,10 +2655,10 @@
         <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2679,10 +2672,10 @@
         <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2696,10 +2689,10 @@
         <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2713,10 +2706,10 @@
         <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2730,10 +2723,10 @@
         <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,10 +2740,10 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2764,10 +2757,10 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,10 +2774,10 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2798,10 +2791,10 @@
         <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2815,10 +2808,10 @@
         <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2832,10 +2825,10 @@
         <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2849,10 +2842,10 @@
         <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2866,10 +2859,10 @@
         <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2883,10 +2876,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
